--- a/result_analysis.xlsx
+++ b/result_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ducbui/projects/595_nlp/assignment/2/neural_text_classification_numpy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C572358E-DCB2-4E4A-A1D7-8DCAE30E0B10}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB26228D-333A-D746-A43B-26C244770B53}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{BFBDE4C3-7404-5F4E-8734-B32966FE4426}"/>
   </bookViews>
@@ -30,20 +30,26 @@
     <t>Epoch</t>
   </si>
   <si>
-    <t>Validate</t>
+    <t>Train</t>
   </si>
   <si>
-    <t>Train</t>
+    <t>Dev</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,6 +133,15 @@
               <a:t>Sentence-level accuracy</a:t>
             </a:r>
           </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(Duc Bui/ducbui)</a:t>
+            </a:r>
+          </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
@@ -235,7 +251,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.98737799999999998</c:v>
+                  <c:v>0.34028900000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.94822256568778895</c:v>
@@ -271,7 +287,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Validate</c:v>
+                  <c:v>Dev</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -334,7 +350,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.984985</c:v>
+                  <c:v>0.33433400000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.94594594594594505</c:v>
@@ -482,6 +498,7 @@
         <c:crossAx val="313272432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1450,7 +1467,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1460,21 +1477,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.98737799999999998</v>
-      </c>
-      <c r="C2">
-        <v>0.984985</v>
+      <c r="B2" s="1">
+        <v>0.34028900000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.33433400000000002</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
